--- a/data/trans_orig/P36B10-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36B10-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>47837</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34368</v>
+        <v>35411</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62902</v>
+        <v>64485</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1011482413504796</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07266890943171284</v>
+        <v>0.07487447128908571</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1330023011720226</v>
+        <v>0.136348085187829</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>27</v>
@@ -764,19 +764,19 @@
         <v>29188</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20314</v>
+        <v>19958</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40740</v>
+        <v>40381</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09517285835449656</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06623930687408602</v>
+        <v>0.06507826476171158</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1328435283591736</v>
+        <v>0.1316698727556326</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>67</v>
@@ -785,19 +785,19 @@
         <v>77025</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>60023</v>
+        <v>59760</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>96393</v>
+        <v>96563</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09879770378069036</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07699028419666148</v>
+        <v>0.0766517972244504</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.123640883030557</v>
+        <v>0.1238589576086796</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>73452</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>58579</v>
+        <v>58140</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>91913</v>
+        <v>90658</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1553079957088938</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1238607493787002</v>
+        <v>0.1229317587756988</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.194342198535151</v>
+        <v>0.1916901915276928</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>51</v>
@@ -835,19 +835,19 @@
         <v>51729</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>40255</v>
+        <v>39926</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>65991</v>
+        <v>65176</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.168673798371664</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.13126054704051</v>
+        <v>0.1301879408753467</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2151803095245216</v>
+        <v>0.212521963560676</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>118</v>
@@ -856,19 +856,19 @@
         <v>125181</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>106329</v>
+        <v>104925</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>147897</v>
+        <v>146803</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1605657040985235</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.136385532058075</v>
+        <v>0.1345836461231031</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1897026796326817</v>
+        <v>0.1883005311086732</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>144105</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>124923</v>
+        <v>123810</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>165255</v>
+        <v>164839</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3046999863542753</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2641393714036225</v>
+        <v>0.2617860011699996</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3494196746675289</v>
+        <v>0.3485392594767062</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>125</v>
@@ -906,19 +906,19 @@
         <v>128830</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>111993</v>
+        <v>111159</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>147336</v>
+        <v>146160</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4200790604081557</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3651797752053989</v>
+        <v>0.3624594648358885</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4804225927698457</v>
+        <v>0.4765881337189807</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>265</v>
@@ -927,19 +927,19 @@
         <v>272936</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>247212</v>
+        <v>244551</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>298041</v>
+        <v>299069</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3500866751261009</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3170919001163552</v>
+        <v>0.3136782974834175</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.38228822716726</v>
+        <v>0.3836073095503646</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>137123</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>119332</v>
+        <v>116803</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>156913</v>
+        <v>156139</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2899351824028074</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2523185752815542</v>
+        <v>0.2469702451144126</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.331779920961294</v>
+        <v>0.330143141506478</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>73</v>
@@ -977,19 +977,19 @@
         <v>75338</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>60017</v>
+        <v>62291</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>90471</v>
+        <v>91632</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2456581219303193</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1956975792811922</v>
+        <v>0.2031125190343448</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.29500006888802</v>
+        <v>0.2987878106425367</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>209</v>
@@ -998,19 +998,19 @@
         <v>212461</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>190733</v>
+        <v>188372</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>238190</v>
+        <v>239033</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2725179065243611</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.244648012728499</v>
+        <v>0.2416197462329211</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3055196577643129</v>
+        <v>0.3066001477552129</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>70425</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>55743</v>
+        <v>56042</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>88417</v>
+        <v>87399</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1489085941835438</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1178647990365738</v>
+        <v>0.1184965344772949</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1869511223261485</v>
+        <v>0.1847991480429253</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>21</v>
@@ -1048,19 +1048,19 @@
         <v>21595</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13936</v>
+        <v>13950</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>32759</v>
+        <v>31966</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07041616093536444</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04544212144306518</v>
+        <v>0.0454862531269413</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1068179957079364</v>
+        <v>0.1042332194252749</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>92</v>
@@ -1069,19 +1069,19 @@
         <v>92020</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>75112</v>
+        <v>76138</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>111618</v>
+        <v>113432</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1180320104703241</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09634416715115936</v>
+        <v>0.09766003888656791</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1431688939831966</v>
+        <v>0.1454961326124639</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>14574</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8359</v>
+        <v>8247</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24032</v>
+        <v>24599</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03971744161398715</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02278177009710791</v>
+        <v>0.02247607732353036</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0654939333207973</v>
+        <v>0.06703815234848326</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -1194,19 +1194,19 @@
         <v>30349</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21243</v>
+        <v>20864</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>43025</v>
+        <v>41788</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08182755684361341</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05727742237260724</v>
+        <v>0.05625481281221066</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1160075064723829</v>
+        <v>0.1126709154121739</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>44</v>
@@ -1215,19 +1215,19 @@
         <v>44922</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34110</v>
+        <v>32767</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>60163</v>
+        <v>60144</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06088521949694683</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04623122131257206</v>
+        <v>0.04441073163246574</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08154141298166362</v>
+        <v>0.08151599634648186</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>50950</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>38495</v>
+        <v>38688</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>64950</v>
+        <v>63783</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1388530911669596</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1049085324097073</v>
+        <v>0.1054362325403424</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1770062189318996</v>
+        <v>0.1738278290816811</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>63</v>
@@ -1265,19 +1265,19 @@
         <v>64478</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>50966</v>
+        <v>51597</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>80555</v>
+        <v>81325</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1738496546474071</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1374167287439772</v>
+        <v>0.1391182931260562</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2171977630783092</v>
+        <v>0.2192731383593479</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>113</v>
@@ -1286,19 +1286,19 @@
         <v>115428</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>97131</v>
+        <v>95686</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>136213</v>
+        <v>135762</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.156445051634924</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1316456549434238</v>
+        <v>0.1296878618320044</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.184615539016057</v>
+        <v>0.1840051412525489</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>144184</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>125042</v>
+        <v>126402</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>164328</v>
+        <v>164408</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3929426664974369</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3407757293521493</v>
+        <v>0.3444822161053134</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4478414092740222</v>
+        <v>0.4480577227379636</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>165</v>
@@ -1336,19 +1336,19 @@
         <v>170860</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>151532</v>
+        <v>150987</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>189962</v>
+        <v>190305</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4606834141813049</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.408571111540482</v>
+        <v>0.4071006643556384</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5121872117675895</v>
+        <v>0.513112342081343</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>303</v>
@@ -1357,19 +1357,19 @@
         <v>315044</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>287970</v>
+        <v>287552</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>343141</v>
+        <v>341809</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4269943686307264</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.390299024833843</v>
+        <v>0.3897335803891341</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4650758145761587</v>
+        <v>0.4632695061697251</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>106607</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>87149</v>
+        <v>88192</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>125344</v>
+        <v>124350</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2905355647026049</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2375057182206017</v>
+        <v>0.240348090446866</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3415981217153221</v>
+        <v>0.3388891389992105</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>71</v>
@@ -1407,19 +1407,19 @@
         <v>72250</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>57172</v>
+        <v>57673</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>88854</v>
+        <v>88150</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.19480421797636</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1541506712925212</v>
+        <v>0.155501204192225</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2395725113673779</v>
+        <v>0.2376763949660704</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>169</v>
@@ -1428,19 +1428,19 @@
         <v>178857</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>153842</v>
+        <v>158126</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>204638</v>
+        <v>204774</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2424136378713034</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2085091499472431</v>
+        <v>0.2143154019995139</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2773562825921301</v>
+        <v>0.2775404230721735</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>50619</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>38185</v>
+        <v>39551</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>64604</v>
+        <v>65530</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1379512360190115</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1040649442346657</v>
+        <v>0.107788766058463</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1760653270715332</v>
+        <v>0.1785872519707716</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>33</v>
@@ -1478,19 +1478,19 @@
         <v>32948</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>24310</v>
+        <v>23276</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>45646</v>
+        <v>44971</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08883515635131464</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06554591244274717</v>
+        <v>0.06275851656908273</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1230726593640717</v>
+        <v>0.1212523746031496</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>83</v>
@@ -1499,19 +1499,19 @@
         <v>83567</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>69028</v>
+        <v>68521</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>103743</v>
+        <v>103911</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1132617223660994</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09355703220297815</v>
+        <v>0.09287021886956504</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.140608169046609</v>
+        <v>0.1408350219531685</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>17361</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10529</v>
+        <v>10479</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26659</v>
+        <v>26972</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03206323361243062</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01944671591872862</v>
+        <v>0.01935393566186679</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04923697707815607</v>
+        <v>0.04981510856230677</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1624,19 +1624,19 @@
         <v>12022</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6811</v>
+        <v>6766</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20342</v>
+        <v>20721</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07165018170019571</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04059223607215984</v>
+        <v>0.04032341928286375</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1212429178942722</v>
+        <v>0.123498768389812</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>31</v>
@@ -1645,19 +1645,19 @@
         <v>29382</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20510</v>
+        <v>19534</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>41270</v>
+        <v>40132</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04142831992489191</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02891925706718956</v>
+        <v>0.02754284907778667</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05819025255559011</v>
+        <v>0.05658580819033374</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>83150</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>65844</v>
+        <v>66339</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>100657</v>
+        <v>100370</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1535706132970666</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1216077397910456</v>
+        <v>0.1225223350878258</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1859048701491316</v>
+        <v>0.1853739047585288</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -1695,19 +1695,19 @@
         <v>30351</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>21218</v>
+        <v>20792</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>42650</v>
+        <v>42001</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1808926444634173</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1264599884567598</v>
+        <v>0.1239211995733421</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.254199167133191</v>
+        <v>0.2503321807952745</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>110</v>
@@ -1716,19 +1716,19 @@
         <v>113501</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>92690</v>
+        <v>95894</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>133228</v>
+        <v>136757</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.16003418759275</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1306919250893663</v>
+        <v>0.1352082833560037</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1878493130570441</v>
+        <v>0.1928247686495028</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>158536</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>138743</v>
+        <v>139823</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>181754</v>
+        <v>181477</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2928015498962666</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.256244672544632</v>
+        <v>0.2582406518657046</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3356833492533384</v>
+        <v>0.3351717172633411</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>68</v>
@@ -1766,19 +1766,19 @@
         <v>68630</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>56667</v>
+        <v>56153</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>82063</v>
+        <v>81537</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4090408195536668</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3377402902713418</v>
+        <v>0.3346793004085769</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4891077596643569</v>
+        <v>0.4859700947028486</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>224</v>
@@ -1787,19 +1787,19 @@
         <v>227166</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>204058</v>
+        <v>203349</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>252251</v>
+        <v>251449</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.320300279801527</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2877191342480707</v>
+        <v>0.2867182764522397</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3556697203446656</v>
+        <v>0.3545383773970658</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>167794</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>146725</v>
+        <v>146146</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>189307</v>
+        <v>189426</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3099002041716663</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2709877319497823</v>
+        <v>0.2699188288416631</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3496320601793766</v>
+        <v>0.3498511988373101</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>41</v>
@@ -1837,19 +1837,19 @@
         <v>40668</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>30216</v>
+        <v>30745</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>53285</v>
+        <v>53419</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2423873603411399</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.180091440674568</v>
+        <v>0.1832427849065438</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3175833462717266</v>
+        <v>0.3183815817256733</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>202</v>
@@ -1858,19 +1858,19 @@
         <v>208462</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>184545</v>
+        <v>185028</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>232042</v>
+        <v>232720</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2939286872901209</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2602056940793319</v>
+        <v>0.2608867309425136</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3271751061446895</v>
+        <v>0.3281307498952259</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>114605</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>95954</v>
+        <v>96070</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>133469</v>
+        <v>136037</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2116643990225699</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1772178973860524</v>
+        <v>0.1774315453267581</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2465047121348233</v>
+        <v>0.2512473107101604</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>15</v>
@@ -1908,19 +1908,19 @@
         <v>16112</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9235</v>
+        <v>10097</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>24894</v>
+        <v>26039</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0960289939415802</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05504251991790177</v>
+        <v>0.06017667161965252</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1483693246382415</v>
+        <v>0.1551934930436646</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>128</v>
@@ -1929,19 +1929,19 @@
         <v>130717</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>112776</v>
+        <v>110027</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>153015</v>
+        <v>152716</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1843085253907102</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1590124372920482</v>
+        <v>0.1551361465196585</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2157490211545402</v>
+        <v>0.215327286850516</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>60820</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>45060</v>
+        <v>47237</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>77964</v>
+        <v>79602</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04928449373027431</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03651399519086568</v>
+        <v>0.0382781334520164</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06317703580231745</v>
+        <v>0.06450402750317136</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>46</v>
@@ -2054,19 +2054,19 @@
         <v>47096</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>34678</v>
+        <v>35001</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>60756</v>
+        <v>60999</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06611774450873825</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04868357470948156</v>
+        <v>0.04913714272144853</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08529456799723666</v>
+        <v>0.08563613784475516</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>104</v>
@@ -2075,19 +2075,19 @@
         <v>107916</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>89511</v>
+        <v>89504</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>129261</v>
+        <v>129833</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0554449433338553</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04598873918451966</v>
+        <v>0.04598541566541424</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06641148224699063</v>
+        <v>0.06670522912318759</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>126565</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>104268</v>
+        <v>107226</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>148335</v>
+        <v>149757</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1025600889742978</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08449226276163244</v>
+        <v>0.08688884105661686</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.120201287776151</v>
+        <v>0.121353381829753</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>121</v>
@@ -2125,19 +2125,19 @@
         <v>128571</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>107442</v>
+        <v>110154</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>150459</v>
+        <v>151970</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1804986969324261</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.150836151791989</v>
+        <v>0.1546432355151531</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.211227433574429</v>
+        <v>0.2133482177227355</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>248</v>
@@ -2146,19 +2146,19 @@
         <v>255136</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>226288</v>
+        <v>227023</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>286533</v>
+        <v>288224</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1310832110270853</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1162618356663661</v>
+        <v>0.1166391794889778</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.147214236769104</v>
+        <v>0.1480833235131597</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>384843</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>351969</v>
+        <v>350190</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>418079</v>
+        <v>415281</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3118521351913093</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.285213093720005</v>
+        <v>0.2837715432574187</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3387846088858777</v>
+        <v>0.336516844771357</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>269</v>
@@ -2196,19 +2196,19 @@
         <v>276827</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>251580</v>
+        <v>251027</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>302335</v>
+        <v>301714</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3886321681609544</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3531888311160236</v>
+        <v>0.3524125367341626</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4244424609648224</v>
+        <v>0.4235709919379547</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>653</v>
@@ -2217,19 +2217,19 @@
         <v>661670</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>619063</v>
+        <v>624165</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>701743</v>
+        <v>707980</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3399512546006114</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.318060856033387</v>
+        <v>0.3206820401849682</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3605403379949</v>
+        <v>0.363744593323435</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>388509</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>355081</v>
+        <v>355228</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>422703</v>
+        <v>420417</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3148226352952805</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2877347146596004</v>
+        <v>0.2878537104996981</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3425317128645939</v>
+        <v>0.3406786756167307</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>193</v>
@@ -2267,19 +2267,19 @@
         <v>197115</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>171676</v>
+        <v>174336</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>220270</v>
+        <v>222712</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2767264858099261</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2410124816624502</v>
+        <v>0.2447475527889677</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3092328775100436</v>
+        <v>0.3126615543700777</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>574</v>
@@ -2288,19 +2288,19 @@
         <v>585624</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>547633</v>
+        <v>543383</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>627891</v>
+        <v>628584</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3008806218313529</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2813619237961435</v>
+        <v>0.2791783251826637</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3225966517828716</v>
+        <v>0.3229525404808765</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>273320</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>243978</v>
+        <v>244626</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>304675</v>
+        <v>303550</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2214806468088381</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1977044602896007</v>
+        <v>0.1982295396483813</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2468889486796278</v>
+        <v>0.2459772605336215</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>63</v>
@@ -2338,19 +2338,19 @@
         <v>62701</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>47465</v>
+        <v>48609</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>78515</v>
+        <v>78501</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08802490458795513</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06663576459783543</v>
+        <v>0.06824111756463101</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1102258443088618</v>
+        <v>0.1102069322399248</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>333</v>
@@ -2359,19 +2359,19 @@
         <v>336021</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>303929</v>
+        <v>305155</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>369402</v>
+        <v>369897</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1726399692070952</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1561517846854341</v>
+        <v>0.1567817154684885</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1897903648714382</v>
+        <v>0.1900449488011518</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>20216</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>12046</v>
+        <v>12671</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>30507</v>
+        <v>31075</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05792046519409392</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03451255957958345</v>
+        <v>0.03630495699917881</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08740787733731326</v>
+        <v>0.08903560934569388</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>40</v>
@@ -2484,19 +2484,19 @@
         <v>43363</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>31656</v>
+        <v>31913</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>60589</v>
+        <v>59434</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07675801300900637</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05603483410235385</v>
+        <v>0.05649052346532084</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1072490699313055</v>
+        <v>0.1052050976272024</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>59</v>
@@ -2505,19 +2505,19 @@
         <v>63579</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>49187</v>
+        <v>48239</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>80654</v>
+        <v>81216</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06956431733770232</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.05381791115535436</v>
+        <v>0.05278016376236071</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08824684888808107</v>
+        <v>0.08886235418516197</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>33936</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>24913</v>
+        <v>24089</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>46797</v>
+        <v>46426</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09723013626029073</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0713781131502413</v>
+        <v>0.06901815163858792</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1340812538048001</v>
+        <v>0.1330164697012776</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>85</v>
@@ -2555,19 +2555,19 @@
         <v>90436</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>73574</v>
+        <v>73006</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>111355</v>
+        <v>109527</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1600818998773815</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1302337657999127</v>
+        <v>0.1292298218777655</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1971110624435173</v>
+        <v>0.1938752114947889</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>119</v>
@@ -2576,19 +2576,19 @@
         <v>124371</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>103575</v>
+        <v>104769</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>148073</v>
+        <v>147967</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1360800253070532</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1133252455690982</v>
+        <v>0.1146317189345046</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1620125118451616</v>
+        <v>0.1618967481099742</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>108690</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>91150</v>
+        <v>90569</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>127131</v>
+        <v>126135</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3114118568045402</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2611585215937045</v>
+        <v>0.2594929724332937</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3642468865961827</v>
+        <v>0.3613952468225795</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>210</v>
@@ -2626,19 +2626,19 @@
         <v>224985</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>200896</v>
+        <v>201267</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>249842</v>
+        <v>248490</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3982487349194185</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3556082151324383</v>
+        <v>0.3562657873648283</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4422489558235875</v>
+        <v>0.439855098599289</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>313</v>
@@ -2647,19 +2647,19 @@
         <v>333675</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>303972</v>
+        <v>304551</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>364319</v>
+        <v>365718</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3650874083846537</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3325881443072872</v>
+        <v>0.3332223841462961</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3986163814120699</v>
+        <v>0.4001478598223535</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>106308</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>89275</v>
+        <v>89719</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>125599</v>
+        <v>124746</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.304587348225025</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2557855762273484</v>
+        <v>0.257056997262588</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3598584191093207</v>
+        <v>0.3574134848579206</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>163</v>
@@ -2697,19 +2697,19 @@
         <v>167196</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>146400</v>
+        <v>145858</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>190776</v>
+        <v>189339</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2959561384711222</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2591450787350683</v>
+        <v>0.2581856640770385</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3376958739760627</v>
+        <v>0.3351512315457928</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>266</v>
@@ -2718,19 +2718,19 @@
         <v>273504</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>246079</v>
+        <v>245744</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>303071</v>
+        <v>302575</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2992522307679983</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2692450866599804</v>
+        <v>0.2688787574146158</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3316027086674852</v>
+        <v>0.3310603729174809</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>79874</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>65737</v>
+        <v>65645</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>96549</v>
+        <v>96387</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2288501935160502</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1883448533052295</v>
+        <v>0.1880821851147137</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2766267184794031</v>
+        <v>0.2761635011570987</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>38</v>
@@ -2768,19 +2768,19 @@
         <v>38955</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>26956</v>
+        <v>27322</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>52977</v>
+        <v>52056</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.06895521372307144</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.04771514425938626</v>
+        <v>0.04836340997031078</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.09377562049271132</v>
+        <v>0.09214535215230021</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>118</v>
@@ -2789,19 +2789,19 @@
         <v>118829</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>97857</v>
+        <v>99100</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>140501</v>
+        <v>139273</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1300160182025925</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1070690759615219</v>
+        <v>0.108429086666921</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1537284839408204</v>
+        <v>0.1523840970980702</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>10896</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>4769</v>
+        <v>5608</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>19167</v>
+        <v>20277</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03653822051726285</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01599164301543663</v>
+        <v>0.0188068495671435</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.06427706505064661</v>
+        <v>0.06799808023280234</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>111</v>
@@ -2914,19 +2914,19 @@
         <v>114341</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>96030</v>
+        <v>96987</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>135936</v>
+        <v>135969</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.09179089036584898</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.07709134430430306</v>
+        <v>0.07785985753261412</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1091271345468102</v>
+        <v>0.1091540413754334</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>121</v>
@@ -2935,19 +2935,19 @@
         <v>125236</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>104656</v>
+        <v>105367</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>148632</v>
+        <v>148504</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.08111873727612891</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0677885336745981</v>
+        <v>0.06824894708564919</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.09627291953564604</v>
+        <v>0.0961897102767643</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>13898</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>7897</v>
+        <v>8163</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>22113</v>
+        <v>21947</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04660483527878848</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02648291806503589</v>
+        <v>0.0273743381392288</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.07415620982718188</v>
+        <v>0.0735966420267582</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>206</v>
@@ -2985,19 +2985,19 @@
         <v>208978</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>182009</v>
+        <v>183728</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>234970</v>
+        <v>238151</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1677642206037541</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1461136343803959</v>
+        <v>0.1474934623641851</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1886296916587198</v>
+        <v>0.1911837577717098</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>221</v>
@@ -3006,19 +3006,19 @@
         <v>222876</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>197357</v>
+        <v>198560</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>253129</v>
+        <v>252844</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.144362066246547</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1278330410148374</v>
+        <v>0.1286121625092618</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1639580069391993</v>
+        <v>0.1637734562567018</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>78903</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>64555</v>
+        <v>65542</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>93458</v>
+        <v>94677</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2645950538409617</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2164829235493023</v>
+        <v>0.2197909884392455</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3134049171664703</v>
+        <v>0.31749246077979</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>509</v>
@@ -3056,19 +3056,19 @@
         <v>516823</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>482493</v>
+        <v>481292</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>552687</v>
+        <v>550167</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4148965989147324</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3873372260524039</v>
+        <v>0.3863731400819995</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4436876236209643</v>
+        <v>0.4416648416884444</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>589</v>
@@ -3077,19 +3077,19 @@
         <v>595725</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>559305</v>
+        <v>559137</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>633740</v>
+        <v>631841</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3858655837068802</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3622753496392282</v>
+        <v>0.3621668322149918</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4104893051367148</v>
+        <v>0.4092591331988921</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>93486</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>78792</v>
+        <v>77447</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>109312</v>
+        <v>108126</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3134989411058294</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2642244373805773</v>
+        <v>0.2597148642848366</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3665710977390694</v>
+        <v>0.362592729260219</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>256</v>
@@ -3127,19 +3127,19 @@
         <v>256119</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>229301</v>
+        <v>229629</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>285070</v>
+        <v>288189</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2056080277036373</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1840793101510853</v>
+        <v>0.1843424699740151</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2288497896842679</v>
+        <v>0.2313536364550455</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>351</v>
@@ -3148,19 +3148,19 @@
         <v>349604</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>316784</v>
+        <v>319320</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>382285</v>
+        <v>382014</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2264473527167686</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2051885199164877</v>
+        <v>0.2068317147220186</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2476151382869492</v>
+        <v>0.2474399621923528</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>101019</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>86555</v>
+        <v>85734</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>117338</v>
+        <v>116634</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3387629492571576</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2902558038834379</v>
+        <v>0.2875038048556533</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3934873632790427</v>
+        <v>0.3911271240733551</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>153</v>
@@ -3198,19 +3198,19 @@
         <v>149406</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>128812</v>
+        <v>128915</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>173134</v>
+        <v>176240</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1199402624120271</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1034085332658034</v>
+        <v>0.1034910991669004</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1389889020572552</v>
+        <v>0.1414826016256953</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>259</v>
@@ -3219,19 +3219,19 @@
         <v>250425</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>224985</v>
+        <v>223664</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>278845</v>
+        <v>278364</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1622062600536752</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1457284109231406</v>
+        <v>0.1448727432702458</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1806146654829764</v>
+        <v>0.1803031796441682</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>171703</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>146102</v>
+        <v>147487</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>202022</v>
+        <v>203306</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.05262750584722681</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.04478083420146546</v>
+        <v>0.04520541884136051</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.06192057985182489</v>
+        <v>0.06231406195945819</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>266</v>
@@ -3344,19 +3344,19 @@
         <v>276358</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>246014</v>
+        <v>244192</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>308341</v>
+        <v>309380</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.08204782757141002</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.07303909169107659</v>
+        <v>0.07249798945046602</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.09154326293596993</v>
+        <v>0.09185163990089248</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>426</v>
@@ -3365,19 +3365,19 @@
         <v>448061</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>411274</v>
+        <v>404514</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>491678</v>
+        <v>489030</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.06757205690315754</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.06202425481671421</v>
+        <v>0.06100479240963672</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.07415003713258526</v>
+        <v>0.07375069192936279</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>381950</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>349498</v>
+        <v>343759</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>421928</v>
+        <v>417147</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1170690990351355</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1071224842148963</v>
+        <v>0.1053634424762758</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1293224695227924</v>
+        <v>0.1278571809237752</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>554</v>
@@ -3415,19 +3415,19 @@
         <v>574543</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>531139</v>
+        <v>534546</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>618656</v>
+        <v>620539</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1705756248547747</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1576895159571606</v>
+        <v>0.1587012150596852</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1836723544975337</v>
+        <v>0.1842313924432358</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>929</v>
@@ -3436,19 +3436,19 @@
         <v>956492</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>900101</v>
+        <v>899309</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1013851</v>
+        <v>1018369</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1442486456911391</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.135744343550805</v>
+        <v>0.1356249060857445</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1528988721856968</v>
+        <v>0.1535802143979283</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>1019261</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>962836</v>
+        <v>965749</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1076381</v>
+        <v>1074402</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3124074350587643</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2951129401594939</v>
+        <v>0.2960059946214309</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3299149318929592</v>
+        <v>0.3293082760825369</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1346</v>
@@ -3486,19 +3486,19 @@
         <v>1386953</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1332271</v>
+        <v>1327049</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1442586</v>
+        <v>1446244</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.4117718658017012</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3955371486705695</v>
+        <v>0.3939869277571068</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.4282886225809195</v>
+        <v>0.4293744920909327</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>2347</v>
@@ -3507,19 +3507,19 @@
         <v>2406214</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2329228</v>
+        <v>2330004</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>2481597</v>
+        <v>2485147</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3628812817523133</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.351270922633764</v>
+        <v>0.3513880408037908</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3742498077166254</v>
+        <v>0.3747850686179883</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>999826</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>949938</v>
+        <v>944544</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>1053112</v>
+        <v>1052768</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.3064506687870627</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2911598397096902</v>
+        <v>0.289506288727808</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3227830802672557</v>
+        <v>0.3226774621119392</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>797</v>
@@ -3557,19 +3557,19 @@
         <v>808686</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>762787</v>
+        <v>756547</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>856897</v>
+        <v>859658</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2400904662213328</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.226463388266006</v>
+        <v>0.2246108091486854</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2544037756453423</v>
+        <v>0.2552234728020285</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1771</v>
@@ -3578,19 +3578,19 @@
         <v>1808513</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>1735729</v>
+        <v>1735043</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>1877672</v>
+        <v>1885534</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.272741879174804</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2617653999544566</v>
+        <v>0.2616618997442955</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2831718291727409</v>
+        <v>0.2843574278395745</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>689862</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>637997</v>
+        <v>645931</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>733457</v>
+        <v>739136</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2114452912718107</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1955485570840097</v>
+        <v>0.1979802763803185</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2248073041091524</v>
+        <v>0.2265481565677034</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>323</v>
@@ -3628,19 +3628,19 @@
         <v>321716</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>288040</v>
+        <v>292013</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>355911</v>
+        <v>357090</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.09551421555078131</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.08551613380824241</v>
+        <v>0.08669561499404153</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1056662645328652</v>
+        <v>0.1060163287998237</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1013</v>
@@ -3649,19 +3649,19 @@
         <v>1011578</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>952418</v>
+        <v>956328</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1070388</v>
+        <v>1074425</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.152556136478586</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1436342700807871</v>
+        <v>0.1442239266050184</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1614253221190778</v>
+        <v>0.1620340358530927</v>
       </c>
     </row>
     <row r="45">
@@ -3995,19 +3995,19 @@
         <v>27531</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19033</v>
+        <v>18032</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40460</v>
+        <v>40119</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06311984141297441</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04363755704790852</v>
+        <v>0.04134280214962045</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09276350944227753</v>
+        <v>0.09198268135544929</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>27</v>
@@ -4016,19 +4016,19 @@
         <v>31792</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21160</v>
+        <v>21639</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43722</v>
+        <v>46381</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.101790984252269</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06774774277548901</v>
+        <v>0.06928239136143897</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.139987317752216</v>
+        <v>0.1485013649190731</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>52</v>
@@ -4037,19 +4037,19 @@
         <v>59323</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>44488</v>
+        <v>44396</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>76244</v>
+        <v>77810</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.079256463041844</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05943684649827533</v>
+        <v>0.0593140117537196</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1018635613756483</v>
+        <v>0.1039558145212185</v>
       </c>
     </row>
     <row r="5">
@@ -4066,19 +4066,19 @@
         <v>90212</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>74571</v>
+        <v>73730</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>108046</v>
+        <v>107252</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2068301434993935</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1709696752255537</v>
+        <v>0.1690413149166446</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2477197110235448</v>
+        <v>0.245899324102999</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>81</v>
@@ -4087,19 +4087,19 @@
         <v>89718</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>74557</v>
+        <v>72807</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>109548</v>
+        <v>106959</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2872544368679484</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2387135976919698</v>
+        <v>0.233111136880781</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3507469424068487</v>
+        <v>0.3424577142721964</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>167</v>
@@ -4108,19 +4108,19 @@
         <v>179930</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>155922</v>
+        <v>155299</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>205462</v>
+        <v>205542</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2403894411196044</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2083146285215831</v>
+        <v>0.2074829800387282</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2745015933272393</v>
+        <v>0.2746079004984759</v>
       </c>
     </row>
     <row r="6">
@@ -4137,19 +4137,19 @@
         <v>134994</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>117439</v>
+        <v>117118</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>156376</v>
+        <v>157145</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3095037753430352</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2692546817100672</v>
+        <v>0.2685182583197288</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3585269023976774</v>
+        <v>0.3602889126975246</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>99</v>
@@ -4158,19 +4158,19 @@
         <v>109963</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>92355</v>
+        <v>92936</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>128362</v>
+        <v>128608</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3520728828728115</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2956989779813629</v>
+        <v>0.2975585784728096</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4109843970177993</v>
+        <v>0.411770700392434</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>224</v>
@@ -4179,19 +4179,19 @@
         <v>244957</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>218254</v>
+        <v>217688</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>272384</v>
+        <v>272836</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3272669323343168</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2915916426110084</v>
+        <v>0.2908360405623165</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3639100946285192</v>
+        <v>0.3645144084693889</v>
       </c>
     </row>
     <row r="7">
@@ -4208,19 +4208,19 @@
         <v>124684</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>106024</v>
+        <v>105633</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>146800</v>
+        <v>145973</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2858650801416936</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2430845126791252</v>
+        <v>0.2421868266175499</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3365712949043924</v>
+        <v>0.3346752045011379</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>49</v>
@@ -4229,19 +4229,19 @@
         <v>55161</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>41853</v>
+        <v>41398</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>70873</v>
+        <v>71368</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1766126782853258</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1340038184766112</v>
+        <v>0.1325468086189258</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2269183755811256</v>
+        <v>0.2285016352455808</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>163</v>
@@ -4250,19 +4250,19 @@
         <v>179845</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>156296</v>
+        <v>157527</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>206317</v>
+        <v>206505</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2402764437228591</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2088139914790407</v>
+        <v>0.2104591525989159</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2756434507545644</v>
+        <v>0.2758951644729374</v>
       </c>
     </row>
     <row r="8">
@@ -4279,19 +4279,19 @@
         <v>58743</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>45759</v>
+        <v>44424</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>75780</v>
+        <v>75369</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1346811596029032</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1049125212175313</v>
+        <v>0.101852290024759</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1737422434114704</v>
+        <v>0.1727989591333526</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>25</v>
@@ -4300,19 +4300,19 @@
         <v>25695</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>17923</v>
+        <v>16700</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>37559</v>
+        <v>36126</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08226901772164519</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05738466230469069</v>
+        <v>0.05346809933451453</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1202561592640962</v>
+        <v>0.1156667890329279</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>78</v>
@@ -4321,19 +4321,19 @@
         <v>84438</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>67850</v>
+        <v>66962</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>103721</v>
+        <v>102641</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1128107197813756</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09064840025905267</v>
+        <v>0.08946230354011132</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1385728243633519</v>
+        <v>0.1371301755136062</v>
       </c>
     </row>
     <row r="9">
@@ -4425,19 +4425,19 @@
         <v>31041</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20839</v>
+        <v>20850</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45459</v>
+        <v>43773</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07434392589753154</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04990952365021521</v>
+        <v>0.04993470163963384</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1088745611038421</v>
+        <v>0.1048360183154406</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -4446,19 +4446,19 @@
         <v>39040</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27073</v>
+        <v>27294</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>52344</v>
+        <v>52034</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1154978320423386</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08009423604462297</v>
+        <v>0.08074931744532256</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1548589724416084</v>
+        <v>0.1539409014823514</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>60</v>
@@ -4467,19 +4467,19 @@
         <v>70081</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>55254</v>
+        <v>55061</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>87848</v>
+        <v>91064</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09275499832599406</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07313118579136343</v>
+        <v>0.07287569962239226</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1162698151115471</v>
+        <v>0.1205262730391626</v>
       </c>
     </row>
     <row r="11">
@@ -4496,19 +4496,19 @@
         <v>84717</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>67600</v>
+        <v>66428</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>106130</v>
+        <v>105009</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2028975419740273</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1619015733913864</v>
+        <v>0.1590935153353846</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2541810910053784</v>
+        <v>0.2514964267470432</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>68</v>
@@ -4517,19 +4517,19 @@
         <v>74581</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>60552</v>
+        <v>59532</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>90797</v>
+        <v>91107</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2206473692846861</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1791412333526949</v>
+        <v>0.1761253599455758</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.268620994381803</v>
+        <v>0.2695391115455816</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>137</v>
@@ -4538,19 +4538,19 @@
         <v>159299</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>137541</v>
+        <v>136416</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>185330</v>
+        <v>185391</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2108383035401193</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1820406042889961</v>
+        <v>0.1805527168376778</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2452924515889143</v>
+        <v>0.2453726095228521</v>
       </c>
     </row>
     <row r="12">
@@ -4567,19 +4567,19 @@
         <v>137049</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>118173</v>
+        <v>118717</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>157258</v>
+        <v>159913</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3282303958970802</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2830228447622344</v>
+        <v>0.2843260123405607</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3766320028435722</v>
+        <v>0.3829900955736362</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>113</v>
@@ -4588,19 +4588,19 @@
         <v>125768</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>107799</v>
+        <v>106816</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>144759</v>
+        <v>143659</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3720826044752604</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3189223451812585</v>
+        <v>0.3160130822657456</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4282679906398</v>
+        <v>0.4250132749420175</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>240</v>
@@ -4609,19 +4609,19 @@
         <v>262817</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>234063</v>
+        <v>236476</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>289217</v>
+        <v>293267</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3478486111265183</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3097918653622336</v>
+        <v>0.3129862903636332</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3827900059588032</v>
+        <v>0.3881511984167112</v>
       </c>
     </row>
     <row r="13">
@@ -4638,19 +4638,19 @@
         <v>113324</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>95817</v>
+        <v>95452</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>133257</v>
+        <v>132616</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2714099138963424</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2294800392125275</v>
+        <v>0.2286058403173727</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3191504538251471</v>
+        <v>0.3176146137122434</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>58</v>
@@ -4659,19 +4659,19 @@
         <v>61693</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49034</v>
+        <v>47910</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>80211</v>
+        <v>77266</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1825178440399981</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1450653221992506</v>
+        <v>0.1417423356742155</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2373029943206095</v>
+        <v>0.2285887356791355</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>165</v>
@@ -4680,19 +4680,19 @@
         <v>175017</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>150940</v>
+        <v>150644</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>200077</v>
+        <v>201099</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.231642161822397</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1997747440850491</v>
+        <v>0.1993835001399804</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2648096402950672</v>
+        <v>0.2661632599623203</v>
       </c>
     </row>
     <row r="14">
@@ -4709,19 +4709,19 @@
         <v>51407</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>38375</v>
+        <v>37622</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>67628</v>
+        <v>66862</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1231182223350185</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0919080026805915</v>
+        <v>0.0901049383729427</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.161967889908297</v>
+        <v>0.160133036966126</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>32</v>
@@ -4730,19 +4730,19 @@
         <v>36929</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>25192</v>
+        <v>26416</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>50348</v>
+        <v>51468</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1092543501577168</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07453010336244155</v>
+        <v>0.07815219782078643</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1489543916212842</v>
+        <v>0.1522683152311079</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>77</v>
@@ -4751,19 +4751,19 @@
         <v>88336</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>71551</v>
+        <v>70277</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>109598</v>
+        <v>108433</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1169159251849713</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09470028486078728</v>
+        <v>0.09301486141844219</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1450575846392068</v>
+        <v>0.1435157859415131</v>
       </c>
     </row>
     <row r="15">
@@ -4855,19 +4855,19 @@
         <v>47832</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>34949</v>
+        <v>34584</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>63486</v>
+        <v>61672</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07634741849461378</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05578358885068736</v>
+        <v>0.05520154012643102</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1013337493199123</v>
+        <v>0.09843811575091881</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>30</v>
@@ -4876,19 +4876,19 @@
         <v>30940</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21464</v>
+        <v>22299</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>41401</v>
+        <v>43872</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1193928847203749</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08282529939896509</v>
+        <v>0.08604839278414995</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1597611111124854</v>
+        <v>0.1692953627370132</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>75</v>
@@ -4897,19 +4897,19 @@
         <v>78772</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>62020</v>
+        <v>63136</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>96293</v>
+        <v>99176</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0889427327195725</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07002717161313901</v>
+        <v>0.07128790995830872</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1087252748216011</v>
+        <v>0.1119807655335607</v>
       </c>
     </row>
     <row r="17">
@@ -4926,19 +4926,19 @@
         <v>125162</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>105401</v>
+        <v>105686</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>146501</v>
+        <v>149373</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1997787782618721</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1682372673791498</v>
+        <v>0.1686912172174433</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2338389261496983</v>
+        <v>0.2384223873417794</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>69</v>
@@ -4947,19 +4947,19 @@
         <v>73009</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>58358</v>
+        <v>59081</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>88761</v>
+        <v>86947</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2817293827673076</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2251940975919631</v>
+        <v>0.227982504442272</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3425119759503899</v>
+        <v>0.3355148410340065</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>185</v>
@@ -4968,19 +4968,19 @@
         <v>198171</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>173874</v>
+        <v>174039</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>226815</v>
+        <v>225894</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2237579264782654</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.196323723763835</v>
+        <v>0.1965097712010105</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2560995523887177</v>
+        <v>0.2550595789166451</v>
       </c>
     </row>
     <row r="18">
@@ -4997,19 +4997,19 @@
         <v>197602</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>175017</v>
+        <v>175673</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>222596</v>
+        <v>222487</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3154034262006585</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2793539883411902</v>
+        <v>0.28040131714756</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3552975687080706</v>
+        <v>0.3551239026881063</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>80</v>
@@ -5018,19 +5018,19 @@
         <v>87777</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>73519</v>
+        <v>72041</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>103606</v>
+        <v>103532</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3387149551237746</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2836982743241827</v>
+        <v>0.277992851515055</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3997977670999596</v>
+        <v>0.3995112972376366</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>267</v>
@@ -5039,19 +5039,19 @@
         <v>285378</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>256869</v>
+        <v>257516</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>314083</v>
+        <v>314348</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3222244937275133</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2900343857843186</v>
+        <v>0.2907641028628353</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.354635476935489</v>
+        <v>0.3549340883083237</v>
       </c>
     </row>
     <row r="19">
@@ -5068,19 +5068,19 @@
         <v>166996</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>145636</v>
+        <v>144432</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>191254</v>
+        <v>189087</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2665517152400404</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2324571786900926</v>
+        <v>0.2305358707491058</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3052710665076749</v>
+        <v>0.3018118644690652</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>40</v>
@@ -5089,19 +5089,19 @@
         <v>42143</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>32352</v>
+        <v>32257</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>55541</v>
+        <v>57283</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1626226400184974</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1248408855687238</v>
+        <v>0.1244752891571577</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2143221070069576</v>
+        <v>0.2210434935637635</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>200</v>
@@ -5110,19 +5110,19 @@
         <v>209139</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>185023</v>
+        <v>182032</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>236891</v>
+        <v>235227</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2361415588565719</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2089116046882173</v>
+        <v>0.2055351716307977</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2674763182454233</v>
+        <v>0.2655980313193426</v>
       </c>
     </row>
     <row r="20">
@@ -5139,19 +5139,19 @@
         <v>88913</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>71595</v>
+        <v>71334</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>108649</v>
+        <v>108650</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1419186618028152</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1142775012677546</v>
+        <v>0.1138600571424135</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1734214044784856</v>
+        <v>0.1734220070568447</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>24</v>
@@ -5160,19 +5160,19 @@
         <v>25277</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>17284</v>
+        <v>16635</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>35798</v>
+        <v>36274</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.09754013737004541</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06669765046719794</v>
+        <v>0.06419078311909771</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.138136713786338</v>
+        <v>0.1399762864936109</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>105</v>
@@ -5181,19 +5181,19 @@
         <v>114190</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>94798</v>
+        <v>94109</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>134696</v>
+        <v>136223</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1289332882180769</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1070374735988763</v>
+        <v>0.1062594244624671</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.152086936763161</v>
+        <v>0.153811236185572</v>
       </c>
     </row>
     <row r="21">
@@ -5285,19 +5285,19 @@
         <v>95734</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>78391</v>
+        <v>77876</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>116037</v>
+        <v>115677</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08302907160135818</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06798816340409965</v>
+        <v>0.06754101455901693</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1006382105714223</v>
+        <v>0.1003259683393011</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>74</v>
@@ -5306,19 +5306,19 @@
         <v>82046</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>66194</v>
+        <v>64476</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>103044</v>
+        <v>101224</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1074296145340582</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08667383742283072</v>
+        <v>0.08442354945874737</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1349241580044372</v>
+        <v>0.1325407938075563</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>165</v>
@@ -5327,19 +5327,19 @@
         <v>177779</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>154039</v>
+        <v>152807</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>204552</v>
+        <v>205917</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09275141275355904</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08036577346116291</v>
+        <v>0.07972264493225974</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.106719400660039</v>
+        <v>0.1074313745363399</v>
       </c>
     </row>
     <row r="23">
@@ -5356,19 +5356,19 @@
         <v>263862</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>235969</v>
+        <v>234784</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>296611</v>
+        <v>296803</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.228845827833283</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.204654603712465</v>
+        <v>0.2036267489119016</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2572489485657469</v>
+        <v>0.257415476060624</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>196</v>
@@ -5377,19 +5377,19 @@
         <v>208712</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>181414</v>
+        <v>183568</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>234143</v>
+        <v>238139</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2732844946107197</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2375416580844788</v>
+        <v>0.2403617371999202</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3065839770225831</v>
+        <v>0.3118163503108911</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>432</v>
@@ -5398,19 +5398,19 @@
         <v>472574</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>434926</v>
+        <v>435669</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>512940</v>
+        <v>510520</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2465523141172505</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2269106489885251</v>
+        <v>0.2272982922584704</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.267612473453721</v>
+        <v>0.2663496128489397</v>
       </c>
     </row>
     <row r="24">
@@ -5427,19 +5427,19 @@
         <v>347908</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>314267</v>
+        <v>316206</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>379585</v>
+        <v>381405</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3017380450348127</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2725617221634595</v>
+        <v>0.274243472875469</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3292116757778724</v>
+        <v>0.3307900183778678</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>214</v>
@@ -5448,19 +5448,19 @@
         <v>230651</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>208166</v>
+        <v>206458</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>260974</v>
+        <v>257518</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3020117804724656</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2725696109693215</v>
+        <v>0.2703328652556342</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.341715715117357</v>
+        <v>0.3371908029839414</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>546</v>
@@ -5469,19 +5469,19 @@
         <v>578559</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>538160</v>
+        <v>538637</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>619151</v>
+        <v>619009</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3018471143009208</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2807703687893593</v>
+        <v>0.2810192538188364</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3230250840851264</v>
+        <v>0.3229508465387579</v>
       </c>
     </row>
     <row r="25">
@@ -5498,19 +5498,19 @@
         <v>299026</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>268961</v>
+        <v>266097</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>333413</v>
+        <v>331035</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.259342949154089</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2332685176067353</v>
+        <v>0.2307842861269174</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2891668581694292</v>
+        <v>0.2871048313566974</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>161</v>
@@ -5519,19 +5519,19 @@
         <v>171783</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>149617</v>
+        <v>148494</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>195259</v>
+        <v>196557</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2249305215811697</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1959068900793</v>
+        <v>0.1944358015365124</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2556699111355697</v>
+        <v>0.2573698256914156</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>437</v>
@@ -5540,19 +5540,19 @@
         <v>470809</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>431873</v>
+        <v>430509</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>512316</v>
+        <v>510590</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2456313952078464</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2253177772382874</v>
+        <v>0.2246063582058795</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2672869919889984</v>
+        <v>0.2663863714622432</v>
       </c>
     </row>
     <row r="26">
@@ -5569,19 +5569,19 @@
         <v>146483</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>125522</v>
+        <v>125410</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>170419</v>
+        <v>171933</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1270441063764572</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1088643436001333</v>
+        <v>0.1087676055778158</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1478034758473095</v>
+        <v>0.1491167028128331</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>64</v>
@@ -5590,19 +5590,19 @@
         <v>70524</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>55870</v>
+        <v>55823</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>88963</v>
+        <v>88629</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09234358880158676</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07315604674226917</v>
+        <v>0.07309437940177411</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1164867814468354</v>
+        <v>0.1160496463517182</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>206</v>
@@ -5611,19 +5611,19 @@
         <v>217008</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>188939</v>
+        <v>188481</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>245833</v>
+        <v>246826</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1132177636204233</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09857392943882935</v>
+        <v>0.09833488181994919</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1282563872272099</v>
+        <v>0.128774504499323</v>
       </c>
     </row>
     <row r="27">
@@ -5715,19 +5715,19 @@
         <v>23409</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>15306</v>
+        <v>15276</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>35128</v>
+        <v>34289</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04636162817815391</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03031355528818859</v>
+        <v>0.03025452273471469</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06957213978341584</v>
+        <v>0.06790997277210566</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>80</v>
@@ -5736,19 +5736,19 @@
         <v>86209</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>68628</v>
+        <v>69314</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>104671</v>
+        <v>106196</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1142817610550664</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09097531782154156</v>
+        <v>0.09188454264998872</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1387556303404826</v>
+        <v>0.1407767798789847</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>101</v>
@@ -5757,19 +5757,19 @@
         <v>109618</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>90043</v>
+        <v>91312</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>132392</v>
+        <v>131253</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08704869627526522</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07150457067203803</v>
+        <v>0.07251234709632079</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1051341606359407</v>
+        <v>0.1042294855400893</v>
       </c>
     </row>
     <row r="29">
@@ -5786,19 +5786,19 @@
         <v>109023</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>91371</v>
+        <v>90529</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>129214</v>
+        <v>128576</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2159248516323182</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1809639305984739</v>
+        <v>0.179296973709068</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2559140964116377</v>
+        <v>0.2546510223404952</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>204</v>
@@ -5807,19 +5807,19 @@
         <v>219077</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>193740</v>
+        <v>195845</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>245737</v>
+        <v>247956</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2904168490345377</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.256828142885188</v>
+        <v>0.2596190023240987</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3257573332611585</v>
+        <v>0.3286988489952428</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>308</v>
@@ -5828,19 +5828,19 @@
         <v>328100</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>299696</v>
+        <v>297064</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>359412</v>
+        <v>361008</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2605487480031717</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2379927519256919</v>
+        <v>0.2359022198085001</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2854134508839076</v>
+        <v>0.286681275481448</v>
       </c>
     </row>
     <row r="30">
@@ -5857,19 +5857,19 @@
         <v>140706</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>121976</v>
+        <v>120646</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>161610</v>
+        <v>162361</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2786751800576323</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2415789393844596</v>
+        <v>0.2389443094595764</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3200763991743564</v>
+        <v>0.3215630753776579</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>204</v>
@@ -5878,19 +5878,19 @@
         <v>224399</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>197873</v>
+        <v>197516</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>253349</v>
+        <v>249631</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2974708420636724</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2623076353448515</v>
+        <v>0.2618345494854584</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3358480094436714</v>
+        <v>0.330919412174266</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>338</v>
@@ -5899,19 +5899,19 @@
         <v>365105</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>331441</v>
+        <v>332870</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>396757</v>
+        <v>398970</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2899345864748125</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2632011560774036</v>
+        <v>0.2643359428798972</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3150695198982762</v>
+        <v>0.3168274549646342</v>
       </c>
     </row>
     <row r="31">
@@ -5928,19 +5928,19 @@
         <v>146922</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>126751</v>
+        <v>127900</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>168195</v>
+        <v>168693</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2909855350616637</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2510350160871142</v>
+        <v>0.2533120522430095</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.333117967902411</v>
+        <v>0.3341028650458864</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>158</v>
@@ -5949,19 +5949,19 @@
         <v>170321</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>148906</v>
+        <v>145467</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>199044</v>
+        <v>193857</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2257835582038924</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1973953591873007</v>
+        <v>0.1928356032692471</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2638602624823561</v>
+        <v>0.2569843375105836</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>297</v>
@@ -5970,19 +5970,19 @@
         <v>317243</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>290308</v>
+        <v>287279</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>347879</v>
+        <v>347082</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.251926758818012</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2305369749288869</v>
+        <v>0.2281322710147049</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2762553631356004</v>
+        <v>0.2756221223107026</v>
       </c>
     </row>
     <row r="32">
@@ -5999,19 +5999,19 @@
         <v>84852</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>70488</v>
+        <v>67831</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>103012</v>
+        <v>103334</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1680528050702319</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1396052790157778</v>
+        <v>0.1343428401524725</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2040192064230237</v>
+        <v>0.204657640208639</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>51</v>
@@ -6020,19 +6020,19 @@
         <v>54349</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>41508</v>
+        <v>42372</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>70858</v>
+        <v>70803</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.07204698964283121</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05502463202037274</v>
+        <v>0.0561697461727405</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.09393200681343013</v>
+        <v>0.0938594409816839</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>135</v>
@@ -6041,19 +6041,19 @@
         <v>139201</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>118586</v>
+        <v>118989</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>162963</v>
+        <v>164739</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1105412104287386</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0941709255636724</v>
+        <v>0.09449048613395854</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1294112870960625</v>
+        <v>0.1308216988771607</v>
       </c>
     </row>
     <row r="33">
@@ -6145,19 +6145,19 @@
         <v>14339</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>7749</v>
+        <v>7459</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>25414</v>
+        <v>25851</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.05410005731329662</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02923883438440965</v>
+        <v>0.02814207892327476</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.09588754529081379</v>
+        <v>0.09753628730319414</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>115</v>
@@ -6166,19 +6166,19 @@
         <v>125552</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>105151</v>
+        <v>104059</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>147274</v>
+        <v>150460</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1142618104883493</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.09569468900031408</v>
+        <v>0.09470144923262751</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1340303836156074</v>
+        <v>0.136929317614917</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>127</v>
@@ -6187,19 +6187,19 @@
         <v>139891</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>119115</v>
+        <v>120530</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>165940</v>
+        <v>164836</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1025705492112222</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.08733752785795189</v>
+        <v>0.0883744143034197</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1216698630593338</v>
+        <v>0.1208608795388085</v>
       </c>
     </row>
     <row r="35">
@@ -6216,19 +6216,19 @@
         <v>26108</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>16552</v>
+        <v>16465</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>37700</v>
+        <v>36567</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.09850571218279582</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.062450550341061</v>
+        <v>0.06212186134983878</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1422449826849497</v>
+        <v>0.1379704589953559</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>278</v>
@@ -6237,19 +6237,19 @@
         <v>292750</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>262859</v>
+        <v>259692</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>321328</v>
+        <v>324197</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2664240011101478</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2392207199994626</v>
+        <v>0.2363383082866207</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2924313741571468</v>
+        <v>0.2950426068608245</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>302</v>
@@ -6258,19 +6258,19 @@
         <v>318858</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>285982</v>
+        <v>288001</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>350584</v>
+        <v>349596</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2337923624784487</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2096868631843994</v>
+        <v>0.2111673400362227</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2570541735511623</v>
+        <v>0.2563298752267839</v>
       </c>
     </row>
     <row r="36">
@@ -6287,19 +6287,19 @@
         <v>74251</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>60365</v>
+        <v>61171</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>89545</v>
+        <v>91447</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2801532345689207</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2277592920147334</v>
+        <v>0.2308026540505929</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3378578035409945</v>
+        <v>0.3450328017684133</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>333</v>
@@ -6308,19 +6308,19 @@
         <v>355689</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>322273</v>
+        <v>325699</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>388820</v>
+        <v>389033</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3237024909045522</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2932918166115386</v>
+        <v>0.296409681133766</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3538540164581646</v>
+        <v>0.3540477167313041</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>408</v>
@@ -6329,19 +6329,19 @@
         <v>429940</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>395256</v>
+        <v>397931</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>464222</v>
+        <v>467334</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3152395438098591</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2898087196703606</v>
+        <v>0.2917699455398579</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3403755873239656</v>
+        <v>0.3426571176517781</v>
       </c>
     </row>
     <row r="37">
@@ -6358,19 +6358,19 @@
         <v>79943</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>64813</v>
+        <v>66409</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>93776</v>
+        <v>96383</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3016288180968626</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2445422124395516</v>
+        <v>0.2505644614456114</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3538218741359728</v>
+        <v>0.3636588844836344</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>190</v>
@@ -6379,19 +6379,19 @@
         <v>199307</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>172583</v>
+        <v>175142</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>226369</v>
+        <v>227673</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1813840453818596</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1570633540880046</v>
+        <v>0.1593920577997583</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2060117557527893</v>
+        <v>0.207199078421278</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>270</v>
@@ -6400,19 +6400,19 @@
         <v>279250</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>252266</v>
+        <v>250118</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>310879</v>
+        <v>308657</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2047512675924453</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1849656102553923</v>
+        <v>0.1833909049862592</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2279421727538946</v>
+        <v>0.2263128463944059</v>
       </c>
     </row>
     <row r="38">
@@ -6429,19 +6429,19 @@
         <v>70397</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>57955</v>
+        <v>57301</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>86844</v>
+        <v>85037</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2656121778381242</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2186655430083654</v>
+        <v>0.2162009890624121</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3276648014112747</v>
+        <v>0.320849122176541</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>119</v>
@@ -6450,19 +6450,19 @@
         <v>125515</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>105559</v>
+        <v>103731</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>148632</v>
+        <v>147348</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1142276521150912</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.09606613650510527</v>
+        <v>0.09440273379312543</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1352654794095428</v>
+        <v>0.1340971242389767</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>191</v>
@@ -6471,19 +6471,19 @@
         <v>195912</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>172054</v>
+        <v>170177</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>222386</v>
+        <v>224584</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1436462769080247</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1261528666608348</v>
+        <v>0.1247770164355629</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.163057185216417</v>
+        <v>0.1646686549613993</v>
       </c>
     </row>
     <row r="39">
@@ -6575,19 +6575,19 @@
         <v>239885</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>209804</v>
+        <v>209653</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>272596</v>
+        <v>275172</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.07048862360775407</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.06164965163229718</v>
+        <v>0.06160517207220691</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.0801006003114814</v>
+        <v>0.0808576652012617</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>360</v>
@@ -6596,19 +6596,19 @@
         <v>395579</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>359209</v>
+        <v>356834</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>436896</v>
+        <v>435881</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1121774218537617</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1018637098933618</v>
+        <v>0.1011902136627385</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1238939132918769</v>
+        <v>0.1236061326680719</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>580</v>
@@ -6617,19 +6617,19 @@
         <v>635464</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>586490</v>
+        <v>588243</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>685551</v>
+        <v>689673</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.09170362210042571</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.08463630454079249</v>
+        <v>0.08488919144540809</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.09893168378996772</v>
+        <v>0.09952649005327498</v>
       </c>
     </row>
     <row r="41">
@@ -6646,19 +6646,19 @@
         <v>699084</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>642944</v>
+        <v>649194</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>744976</v>
+        <v>749279</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2054216217163194</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1889250498084727</v>
+        <v>0.1907616186844542</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2189067229926014</v>
+        <v>0.2201711013896139</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>896</v>
@@ -6667,19 +6667,19 @@
         <v>957847</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>909194</v>
+        <v>901133</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1018801</v>
+        <v>1012563</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2716242074191365</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2578271365881568</v>
+        <v>0.2555411389303313</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2889092807308292</v>
+        <v>0.2871403022938437</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1531</v>
@@ -6688,19 +6688,19 @@
         <v>1656932</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1588493</v>
+        <v>1594037</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1732897</v>
+        <v>1738455</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2391114332481434</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2292350784067359</v>
+        <v>0.2300350450354028</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2500739273195151</v>
+        <v>0.2508760069794631</v>
       </c>
     </row>
     <row r="42">
@@ -6717,19 +6717,19 @@
         <v>1032510</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>978961</v>
+        <v>978006</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1088462</v>
+        <v>1088013</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.303396680202097</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2876616849461138</v>
+        <v>0.2873809840499726</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3198379848277012</v>
+        <v>0.3197059579787067</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1043</v>
@@ -6738,19 +6738,19 @@
         <v>1134246</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1077311</v>
+        <v>1070955</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1191585</v>
+        <v>1189320</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3216467879220814</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3055012782000122</v>
+        <v>0.3036989398631419</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.33790691467492</v>
+        <v>0.3372645593088924</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>2023</v>
@@ -6759,19 +6759,19 @@
         <v>2166755</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2087469</v>
+        <v>2086799</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>2245662</v>
+        <v>2246445</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.312683971370478</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3012421319316795</v>
+        <v>0.3011454920810423</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3240709824755371</v>
+        <v>0.3241839632652655</v>
       </c>
     </row>
     <row r="43">
@@ -6788,19 +6788,19 @@
         <v>930894</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>872958</v>
+        <v>879225</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>980363</v>
+        <v>981589</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.273537603209651</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2565133198968095</v>
+        <v>0.2583549896451213</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2880735073727342</v>
+        <v>0.2884339285079051</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>656</v>
@@ -6809,19 +6809,19 @@
         <v>700408</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>652282</v>
+        <v>655116</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>746957</v>
+        <v>750237</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1986202306354655</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1849725866156885</v>
+        <v>0.185776260761294</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2118203879292982</v>
+        <v>0.2127506313801335</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1532</v>
@@ -6830,19 +6830,19 @@
         <v>1631303</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>1565091</v>
+        <v>1561137</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>1701362</v>
+        <v>1705675</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2354129267232408</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2258579237588175</v>
+        <v>0.2252872998796952</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2455230838520467</v>
+        <v>0.2461455559909354</v>
       </c>
     </row>
     <row r="44">
@@ -6859,19 +6859,19 @@
         <v>500795</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>460731</v>
+        <v>453514</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>543656</v>
+        <v>541233</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1471554712641784</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1353829357571213</v>
+        <v>0.1332624303513893</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1597499996627375</v>
+        <v>0.159037856535016</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>315</v>
@@ -6880,19 +6880,19 @@
         <v>338289</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>305157</v>
+        <v>305003</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>375700</v>
+        <v>378481</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.09593135216955492</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.08653566598177939</v>
+        <v>0.08649199344143475</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1065400832804589</v>
+        <v>0.1073287808391221</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>792</v>
@@ -6901,19 +6901,19 @@
         <v>839084</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>782580</v>
+        <v>784375</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>900506</v>
+        <v>894401</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1210880465577121</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1129339313390473</v>
+        <v>0.1131929766129575</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1299518026364333</v>
+        <v>0.1290708565232486</v>
       </c>
     </row>
     <row r="45">
@@ -7247,19 +7247,19 @@
         <v>39138</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28448</v>
+        <v>27480</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53993</v>
+        <v>52801</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09166458961197373</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06662792371975665</v>
+        <v>0.06436168246482067</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.126458494839347</v>
+        <v>0.1236645267393906</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -7268,19 +7268,19 @@
         <v>32700</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22884</v>
+        <v>23301</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45111</v>
+        <v>45916</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09422229468102422</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06593796604970452</v>
+        <v>0.06713819082055693</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1299816560979534</v>
+        <v>0.1323007690025021</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>65</v>
@@ -7289,19 +7289,19 @@
         <v>71838</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>56988</v>
+        <v>55380</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>90393</v>
+        <v>88578</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09281141096684875</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07362536253829076</v>
+        <v>0.07154901859501388</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1167833887570251</v>
+        <v>0.1144390550456688</v>
       </c>
     </row>
     <row r="5">
@@ -7318,19 +7318,19 @@
         <v>70268</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>56507</v>
+        <v>56037</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>88192</v>
+        <v>86874</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.164575941168891</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1323461479225779</v>
+        <v>0.1312453498303552</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2065547818079102</v>
+        <v>0.2034681017159463</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>81</v>
@@ -7339,19 +7339,19 @@
         <v>84972</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>69410</v>
+        <v>69100</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>101269</v>
+        <v>100694</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2448383981468941</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1999974910831452</v>
+        <v>0.1991036679816752</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2917939715762291</v>
+        <v>0.2901380063510845</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>148</v>
@@ -7360,19 +7360,19 @@
         <v>155241</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>133771</v>
+        <v>135129</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>179574</v>
+        <v>178611</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2005639449348151</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1728254349702664</v>
+        <v>0.1745800289883538</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2320016649649655</v>
+        <v>0.2307569257870272</v>
       </c>
     </row>
     <row r="6">
@@ -7389,19 +7389,19 @@
         <v>199315</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>175222</v>
+        <v>177886</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>220959</v>
+        <v>220760</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4668181035170628</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4103885873596609</v>
+        <v>0.4166275583496138</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5175098535852202</v>
+        <v>0.5170438977793471</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>123</v>
@@ -7410,19 +7410,19 @@
         <v>126886</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>109870</v>
+        <v>107527</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>145378</v>
+        <v>146253</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.36560712257588</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.316578563422079</v>
+        <v>0.309827440019157</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4188900502873057</v>
+        <v>0.4214121029543116</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>306</v>
@@ -7431,19 +7431,19 @@
         <v>326201</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>301260</v>
+        <v>296012</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>356564</v>
+        <v>353820</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4214372205936507</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3892146932836955</v>
+        <v>0.3824346085473543</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4606644869575156</v>
+        <v>0.4571190593128735</v>
       </c>
     </row>
     <row r="7">
@@ -7460,19 +7460,19 @@
         <v>98876</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>83241</v>
+        <v>81221</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>119833</v>
+        <v>119093</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2315770925785011</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1949589685469089</v>
+        <v>0.1902293440707388</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2806613431663777</v>
+        <v>0.2789282609856947</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>79</v>
@@ -7481,19 +7481,19 @@
         <v>83331</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>67321</v>
+        <v>68031</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>100895</v>
+        <v>102319</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2401092939181487</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1939783632824636</v>
+        <v>0.1960234383039612</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2907175834119019</v>
+        <v>0.2948193053073337</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>172</v>
@@ -7502,19 +7502,19 @@
         <v>182207</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>157793</v>
+        <v>158517</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>204835</v>
+        <v>207808</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2354027528623248</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.203861652123065</v>
+        <v>0.2047962155952257</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2646380953481904</v>
+        <v>0.2684783339854998</v>
       </c>
     </row>
     <row r="8">
@@ -7531,19 +7531,19 @@
         <v>19369</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11649</v>
+        <v>11721</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>30384</v>
+        <v>29702</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04536427312357148</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02728388208497304</v>
+        <v>0.02745239775960692</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07116147380972077</v>
+        <v>0.0695645854762743</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>18</v>
@@ -7552,19 +7552,19 @@
         <v>19165</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>11019</v>
+        <v>12037</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>28688</v>
+        <v>29892</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05522289067805304</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03175026171680225</v>
+        <v>0.03468315918590158</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08266201842793391</v>
+        <v>0.08613013494857945</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>35</v>
@@ -7573,19 +7573,19 @@
         <v>38534</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>27547</v>
+        <v>28333</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>54193</v>
+        <v>53636</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04978467064236065</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03558894284415819</v>
+        <v>0.03660525604316903</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07001552758600588</v>
+        <v>0.06929514738009908</v>
       </c>
     </row>
     <row r="9">
@@ -7677,19 +7677,19 @@
         <v>21999</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12938</v>
+        <v>14602</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33149</v>
+        <v>33676</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05865927367414978</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03449915970680515</v>
+        <v>0.03893647017317909</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08839031380837827</v>
+        <v>0.08979616144348414</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -7698,19 +7698,19 @@
         <v>25167</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16708</v>
+        <v>17121</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>37429</v>
+        <v>39474</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0680188613684885</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04515555639939064</v>
+        <v>0.04627270837600076</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.101159797011721</v>
+        <v>0.1066872246730327</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -7719,19 +7719,19 @@
         <v>47166</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>33926</v>
+        <v>34628</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>62774</v>
+        <v>63480</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.06330749373194612</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04553699103828768</v>
+        <v>0.04647927220621755</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08425696108121901</v>
+        <v>0.08520386211023118</v>
       </c>
     </row>
     <row r="11">
@@ -7748,19 +7748,19 @@
         <v>75376</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>60008</v>
+        <v>61527</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>91497</v>
+        <v>91107</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2009862278847053</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.160008761008473</v>
+        <v>0.1640585695090993</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2439726488032246</v>
+        <v>0.24293263347207</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>80</v>
@@ -7769,19 +7769,19 @@
         <v>85942</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>70754</v>
+        <v>68951</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>105764</v>
+        <v>103192</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2322743837540066</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1912261118453944</v>
+        <v>0.1863543268574895</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2858469048497652</v>
+        <v>0.2788957275803666</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>150</v>
@@ -7790,19 +7790,19 @@
         <v>161318</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>139401</v>
+        <v>138187</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>185990</v>
+        <v>184554</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2165247578320354</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1871076236682256</v>
+        <v>0.185478497319558</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2496403223705816</v>
+        <v>0.247713450861532</v>
       </c>
     </row>
     <row r="12">
@@ -7819,19 +7819,19 @@
         <v>144068</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>124660</v>
+        <v>125015</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>162614</v>
+        <v>163791</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3841508141296011</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3324007216723086</v>
+        <v>0.333347083525238</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4336035277318339</v>
+        <v>0.4367414794733692</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>146</v>
@@ -7840,19 +7840,19 @@
         <v>151151</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>132013</v>
+        <v>131891</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>169195</v>
+        <v>170003</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.40851510129348</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3567903302227231</v>
+        <v>0.3564606688158217</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4572824980747769</v>
+        <v>0.4594663540911458</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>280</v>
@@ -7861,19 +7861,19 @@
         <v>295219</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>265942</v>
+        <v>266799</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>323821</v>
+        <v>321941</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3962507668184949</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.356953772136159</v>
+        <v>0.3581046274040837</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4346414015476737</v>
+        <v>0.4321176803801099</v>
       </c>
     </row>
     <row r="13">
@@ -7890,19 +7890,19 @@
         <v>102886</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>87068</v>
+        <v>87149</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>122736</v>
+        <v>122537</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2743426481289553</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2321633456855926</v>
+        <v>0.2323791886706346</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3272712827139194</v>
+        <v>0.3267412877689059</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>71</v>
@@ -7911,19 +7911,19 @@
         <v>75482</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>61200</v>
+        <v>60692</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>93082</v>
+        <v>93778</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2040049961998756</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1654046924525195</v>
+        <v>0.1640321564755049</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2515725346314973</v>
+        <v>0.253451362193207</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>170</v>
@@ -7932,19 +7932,19 @@
         <v>178369</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>153055</v>
+        <v>156932</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>202294</v>
+        <v>204612</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2394111003736196</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2054341100835962</v>
+        <v>0.2106385369200942</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2715245329158966</v>
+        <v>0.2746349677767937</v>
       </c>
     </row>
     <row r="14">
@@ -7961,19 +7961,19 @@
         <v>30700</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>21213</v>
+        <v>20394</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>44169</v>
+        <v>42515</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08186103618258864</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05656339523794036</v>
+        <v>0.05437987882482802</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1177739932106742</v>
+        <v>0.1133648117343418</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>31</v>
@@ -7982,19 +7982,19 @@
         <v>32259</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>22658</v>
+        <v>22859</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>44645</v>
+        <v>45417</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08718665738414944</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0612365059911658</v>
+        <v>0.06178061272392338</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1206605969583978</v>
+        <v>0.1227480789598127</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>60</v>
@@ -8003,19 +8003,19 @@
         <v>62960</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>48982</v>
+        <v>48862</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>78707</v>
+        <v>78664</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08450588124390405</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06574505395127105</v>
+        <v>0.06558405808260812</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1056423142010061</v>
+        <v>0.105584932323734</v>
       </c>
     </row>
     <row r="15">
@@ -8107,19 +8107,19 @@
         <v>23782</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15693</v>
+        <v>15807</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>34725</v>
+        <v>34171</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04565647410689464</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03012691034740563</v>
+        <v>0.03034620851320721</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06666410620939692</v>
+        <v>0.06560110088780251</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -8128,19 +8128,19 @@
         <v>19429</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11214</v>
+        <v>11450</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29937</v>
+        <v>29382</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1169585097705221</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06750546158238831</v>
+        <v>0.06892584002410188</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1802080814101773</v>
+        <v>0.1768679598602926</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>41</v>
@@ -8149,19 +8149,19 @@
         <v>43211</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>32091</v>
+        <v>31215</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>57991</v>
+        <v>59032</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06289767617291486</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04671159476713321</v>
+        <v>0.04543577026483381</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08441045875223514</v>
+        <v>0.0859263212351333</v>
       </c>
     </row>
     <row r="17">
@@ -8178,19 +8178,19 @@
         <v>89858</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>71371</v>
+        <v>73610</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>107994</v>
+        <v>107418</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1725098544443631</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1370174611601731</v>
+        <v>0.141315579716123</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2073267903900746</v>
+        <v>0.2062212828561174</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>37</v>
@@ -8199,19 +8199,19 @@
         <v>42570</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>31510</v>
+        <v>31519</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>54732</v>
+        <v>54546</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2562534016167208</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1896803176946402</v>
+        <v>0.1897336593721469</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3294664477503546</v>
+        <v>0.3283490107510057</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>125</v>
@@ -8220,19 +8220,19 @@
         <v>132428</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>112270</v>
+        <v>111426</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>154594</v>
+        <v>154777</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1927594785271218</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1634187296404757</v>
+        <v>0.1621898551309256</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2250238747357431</v>
+        <v>0.2252909286160732</v>
       </c>
     </row>
     <row r="18">
@@ -8249,19 +8249,19 @@
         <v>218293</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>195249</v>
+        <v>195196</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>240445</v>
+        <v>239213</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4190782964850022</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3748389129253101</v>
+        <v>0.3747376826387636</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4616056701563844</v>
+        <v>0.4592408991810228</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>50</v>
@@ -8270,19 +8270,19 @@
         <v>52583</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>40931</v>
+        <v>40820</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>66576</v>
+        <v>66208</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3165291595831454</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.246388437416584</v>
+        <v>0.2457200485814967</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4007649658110561</v>
+        <v>0.3985488428586813</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>258</v>
@@ -8291,19 +8291,19 @@
         <v>270876</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>244763</v>
+        <v>245998</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>297599</v>
+        <v>297955</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3942813832613478</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3562724389089887</v>
+        <v>0.3580692499017162</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4331797026656769</v>
+        <v>0.4336979672597554</v>
       </c>
     </row>
     <row r="19">
@@ -8320,19 +8320,19 @@
         <v>130412</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>112355</v>
+        <v>111151</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>153123</v>
+        <v>150912</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2503656655445829</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2156993928172904</v>
+        <v>0.2133868100034317</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2939653330213376</v>
+        <v>0.2897211421191401</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>39</v>
@@ -8341,19 +8341,19 @@
         <v>41849</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>31053</v>
+        <v>30943</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>54641</v>
+        <v>54330</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2519130219085178</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1869293713188736</v>
+        <v>0.1862627161422991</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3289182592757541</v>
+        <v>0.3270460921838575</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>165</v>
@@ -8362,19 +8362,19 @@
         <v>172261</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>151257</v>
+        <v>147805</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>196246</v>
+        <v>193979</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2507398243394959</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2201662735375261</v>
+        <v>0.2151425086650891</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2856515701301633</v>
+        <v>0.2823518125552956</v>
       </c>
     </row>
     <row r="20">
@@ -8391,19 +8391,19 @@
         <v>58542</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>44815</v>
+        <v>45729</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>74420</v>
+        <v>74543</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1123897094191571</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08603664377899167</v>
+        <v>0.08779047768040607</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1428705073708008</v>
+        <v>0.1431083221718718</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -8412,19 +8412,19 @@
         <v>9693</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4869</v>
+        <v>4918</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16860</v>
+        <v>16879</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05834590712109396</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02931215117188105</v>
+        <v>0.02960195396898644</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1014937643098644</v>
+        <v>0.1016083135248625</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>65</v>
@@ -8433,19 +8433,19 @@
         <v>68235</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>53482</v>
+        <v>54869</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>87612</v>
+        <v>84744</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09932163769911966</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07784698867938193</v>
+        <v>0.07986575903512716</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1275264746459754</v>
+        <v>0.1233516863322183</v>
       </c>
     </row>
     <row r="21">
@@ -8537,19 +8537,19 @@
         <v>70582</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>55716</v>
+        <v>54510</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>91156</v>
+        <v>87592</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06156542465081094</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04859861497020626</v>
+        <v>0.04754657701290974</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07951157658218801</v>
+        <v>0.07640322818837571</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>64</v>
@@ -8558,19 +8558,19 @@
         <v>68308</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>54573</v>
+        <v>53254</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>86247</v>
+        <v>85600</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08312697366531044</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06641214295989391</v>
+        <v>0.06480699591194605</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1049580533433463</v>
+        <v>0.1041702474592144</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>130</v>
@@ -8579,19 +8579,19 @@
         <v>138889</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>115961</v>
+        <v>116911</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>163928</v>
+        <v>165147</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07056752540679462</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05891788565644136</v>
+        <v>0.05940085201179773</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08328932474807776</v>
+        <v>0.0839088243122553</v>
       </c>
     </row>
     <row r="23">
@@ -8608,19 +8608,19 @@
         <v>173698</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>150432</v>
+        <v>150618</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>199107</v>
+        <v>199350</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1515101301767254</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.131215955507043</v>
+        <v>0.1313780090559071</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1736730098999776</v>
+        <v>0.1738848116392332</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>152</v>
@@ -8629,19 +8629,19 @@
         <v>156458</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>134689</v>
+        <v>136008</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>181378</v>
+        <v>180179</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1904014178809145</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1639102045470654</v>
+        <v>0.1655148061120751</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2207279426043314</v>
+        <v>0.2192685552736049</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>321</v>
@@ -8650,19 +8650,19 @@
         <v>330157</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>299016</v>
+        <v>300634</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>364799</v>
+        <v>365336</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.167747520644712</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1519253841568212</v>
+        <v>0.1527475431031501</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.185348669277971</v>
+        <v>0.1856215218572778</v>
       </c>
     </row>
     <row r="24">
@@ -8679,19 +8679,19 @@
         <v>421908</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>386814</v>
+        <v>388860</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>453198</v>
+        <v>456242</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.368013095312392</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3374024348016886</v>
+        <v>0.3391869119404544</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3953059867954768</v>
+        <v>0.397961343894874</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>312</v>
@@ -8700,19 +8700,19 @@
         <v>322197</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>296457</v>
+        <v>295916</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>352807</v>
+        <v>350011</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3920976914136788</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.360772544116212</v>
+        <v>0.3601143281779617</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4293483737353646</v>
+        <v>0.4259451902779228</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>717</v>
@@ -8721,19 +8721,19 @@
         <v>744106</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>699855</v>
+        <v>698432</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>784921</v>
+        <v>786448</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3780685862525445</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3555858076004824</v>
+        <v>0.3548624169925921</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3988061223071416</v>
+        <v>0.3995821796882587</v>
       </c>
     </row>
     <row r="25">
@@ -8750,19 +8750,19 @@
         <v>334760</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>305203</v>
+        <v>304236</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>366142</v>
+        <v>366718</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2919974489742132</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2662158438778199</v>
+        <v>0.2653728736807385</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3193710119410484</v>
+        <v>0.319873565114989</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>194</v>
@@ -8771,19 +8771,19 @@
         <v>200566</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>178064</v>
+        <v>177847</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>227171</v>
+        <v>225553</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2440786267061995</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2166947767824292</v>
+        <v>0.2164305852965061</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2764556662151575</v>
+        <v>0.2744866559061107</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>517</v>
@@ -8792,19 +8792,19 @@
         <v>535326</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>496925</v>
+        <v>497760</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>580507</v>
+        <v>582694</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2719909983303077</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2524800684419602</v>
+        <v>0.2529040810203259</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.294946626917318</v>
+        <v>0.2960577004896511</v>
       </c>
     </row>
     <row r="26">
@@ -8821,19 +8821,19 @@
         <v>145500</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>122500</v>
+        <v>123920</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>169609</v>
+        <v>170060</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1269139008858585</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1068516096724403</v>
+        <v>0.1080903010658786</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1479428986987922</v>
+        <v>0.1483360168118499</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>72</v>
@@ -8842,19 +8842,19 @@
         <v>74198</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>57373</v>
+        <v>59196</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>91689</v>
+        <v>93118</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09029529033389683</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06982037033524317</v>
+        <v>0.07203797534274389</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1115812212442891</v>
+        <v>0.1133201223756042</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>209</v>
@@ -8863,19 +8863,19 @@
         <v>219698</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>191940</v>
+        <v>192349</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>247799</v>
+        <v>253951</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1116253693656412</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09752175685997785</v>
+        <v>0.09772977660778907</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1259027220278258</v>
+        <v>0.1290285393017348</v>
       </c>
     </row>
     <row r="27">
@@ -8967,19 +8967,19 @@
         <v>48765</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>36343</v>
+        <v>37686</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>64990</v>
+        <v>64519</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07892373960860324</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.05881862336519668</v>
+        <v>0.0609930298498553</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1051823064998328</v>
+        <v>0.1044199861787122</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>58</v>
@@ -8988,19 +8988,19 @@
         <v>63572</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>49251</v>
+        <v>50587</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>79991</v>
+        <v>80309</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08621509907253068</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.06679279990042948</v>
+        <v>0.06860462839946201</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1084817483375265</v>
+        <v>0.1089138449436944</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>103</v>
@@ -9009,19 +9009,19 @@
         <v>112337</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>92274</v>
+        <v>92845</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>134312</v>
+        <v>134049</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08289083792406025</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06808648629412355</v>
+        <v>0.06850791520627794</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09910547281240344</v>
+        <v>0.09891168774809306</v>
       </c>
     </row>
     <row r="29">
@@ -9038,19 +9038,19 @@
         <v>110404</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>92319</v>
+        <v>93643</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>130890</v>
+        <v>130634</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1786814567914759</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1494132079545323</v>
+        <v>0.1515551653737732</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2118378696854396</v>
+        <v>0.2114222977730686</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>160</v>
@@ -9059,19 +9059,19 @@
         <v>169414</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>146978</v>
+        <v>144389</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>192599</v>
+        <v>193056</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2297562496987536</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1993292130205849</v>
+        <v>0.1958171438143647</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2611996642952342</v>
+        <v>0.2618186546118751</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>269</v>
@@ -9080,19 +9080,19 @@
         <v>279818</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>250903</v>
+        <v>251441</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>312958</v>
+        <v>310182</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2064703383995208</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1851351121707419</v>
+        <v>0.1855316359388015</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2309239530030455</v>
+        <v>0.2288754381609545</v>
       </c>
     </row>
     <row r="30">
@@ -9109,19 +9109,19 @@
         <v>222660</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>200272</v>
+        <v>197138</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>246602</v>
+        <v>247074</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3603609019849509</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3241283161338572</v>
+        <v>0.3190555284040387</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3991101007973699</v>
+        <v>0.3998738309712083</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>276</v>
@@ -9130,19 +9130,19 @@
         <v>291191</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>263990</v>
+        <v>265290</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>317446</v>
+        <v>317904</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3949087107848628</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3580183018050954</v>
+        <v>0.3597821324813603</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4305140422180569</v>
+        <v>0.4311356867138721</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>492</v>
@@ -9151,19 +9151,19 @@
         <v>513851</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>478838</v>
+        <v>478568</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>549584</v>
+        <v>548943</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3791577470412003</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3533220284297985</v>
+        <v>0.353123487441344</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4055241407699248</v>
+        <v>0.4050508591436774</v>
       </c>
     </row>
     <row r="31">
@@ -9180,19 +9180,19 @@
         <v>154617</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>133355</v>
+        <v>132703</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>176971</v>
+        <v>176483</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2502372307630534</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2158274262109556</v>
+        <v>0.214770843178888</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2864159936183854</v>
+        <v>0.2856270411054717</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>156</v>
@@ -9201,19 +9201,19 @@
         <v>163323</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>142060</v>
+        <v>140990</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>186835</v>
+        <v>186683</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2214960124638735</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1926592156782142</v>
+        <v>0.191208278243827</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2533824962885748</v>
+        <v>0.2531766557523531</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>302</v>
@@ -9222,19 +9222,19 @@
         <v>317940</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>286624</v>
+        <v>286575</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>348645</v>
+        <v>350171</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2345996477769249</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2114924900778902</v>
+        <v>0.2114566688753908</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2572564823190692</v>
+        <v>0.2583820301884669</v>
       </c>
     </row>
     <row r="32">
@@ -9251,19 +9251,19 @@
         <v>81435</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>65142</v>
+        <v>65649</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>100015</v>
+        <v>99335</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1317966708519166</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1054285553078756</v>
+        <v>0.1062495448208078</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1618678077475768</v>
+        <v>0.1607671302084953</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>48</v>
@@ -9272,19 +9272,19 @@
         <v>49863</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>37159</v>
+        <v>37608</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>63740</v>
+        <v>65771</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.06762392797997938</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0503948411355147</v>
+        <v>0.05100327257270651</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.08644308789953777</v>
+        <v>0.08919802657630284</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>126</v>
@@ -9293,19 +9293,19 @@
         <v>131298</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>109247</v>
+        <v>111167</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>154162</v>
+        <v>153884</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.09688142885829382</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08061037645210388</v>
+        <v>0.08202759919159688</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1137521506209931</v>
+        <v>0.1135469016635829</v>
       </c>
     </row>
     <row r="33">
@@ -9397,19 +9397,19 @@
         <v>12843</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>6770</v>
+        <v>6653</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>21877</v>
+        <v>21577</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04472613242749064</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02357682890623032</v>
+        <v>0.02316899285718794</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07618680854971439</v>
+        <v>0.07514326632992753</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>105</v>
@@ -9418,19 +9418,19 @@
         <v>113881</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>95238</v>
+        <v>95373</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>134884</v>
+        <v>137115</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1055653407160282</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.08828353110265942</v>
+        <v>0.08840811791568033</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1250339315534026</v>
+        <v>0.1271019144334673</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>116</v>
@@ -9439,19 +9439,19 @@
         <v>126724</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>107179</v>
+        <v>106797</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>152619</v>
+        <v>151133</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.09277568372825624</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.07846648496119499</v>
+        <v>0.07818645310588639</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1117335702041604</v>
+        <v>0.1106453518176534</v>
       </c>
     </row>
     <row r="35">
@@ -9468,19 +9468,19 @@
         <v>33471</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>23387</v>
+        <v>23944</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>45640</v>
+        <v>47068</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1165648697920635</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.08144760376482178</v>
+        <v>0.08338760057312143</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1589450524510068</v>
+        <v>0.1639182853635872</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>227</v>
@@ -9489,19 +9489,19 @@
         <v>251893</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>222770</v>
+        <v>223818</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>280236</v>
+        <v>285322</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2334986602991609</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2065020086896142</v>
+        <v>0.2074740203845648</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2597720136382374</v>
+        <v>0.2644868244561988</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>259</v>
@@ -9510,19 +9510,19 @@
         <v>285364</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>255631</v>
+        <v>255902</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>320067</v>
+        <v>316212</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2089167646279852</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1871491806420061</v>
+        <v>0.1873476239171896</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2343227444622918</v>
+        <v>0.231500427611635</v>
       </c>
     </row>
     <row r="36">
@@ -9539,19 +9539,19 @@
         <v>99247</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>82709</v>
+        <v>84825</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>115734</v>
+        <v>116198</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3456353461301258</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2880382064694577</v>
+        <v>0.2954096464826959</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4030491556428993</v>
+        <v>0.404667758693909</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>356</v>
@@ -9560,19 +9560,19 @@
         <v>388239</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>357291</v>
+        <v>356963</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>423279</v>
+        <v>421611</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3598879497449733</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3312002777381786</v>
+        <v>0.3308964077495649</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3923696224414182</v>
+        <v>0.3908234479133013</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>450</v>
@@ -9581,19 +9581,19 @@
         <v>487487</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>450780</v>
+        <v>451758</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>522839</v>
+        <v>525203</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3568917583653606</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3300189317203567</v>
+        <v>0.330734700938514</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3827737688785162</v>
+        <v>0.3845042576588121</v>
       </c>
     </row>
     <row r="37">
@@ -9610,19 +9610,19 @@
         <v>99901</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>83361</v>
+        <v>83708</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>116575</v>
+        <v>115187</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3479112954150419</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2903091450139115</v>
+        <v>0.2915199142079063</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4059808125385151</v>
+        <v>0.4011444808376053</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>227</v>
@@ -9631,19 +9631,19 @@
         <v>248214</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>221102</v>
+        <v>221411</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>279229</v>
+        <v>277286</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2300885995817519</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2049563982102691</v>
+        <v>0.205242692676065</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2588384936828285</v>
+        <v>0.2570375860157993</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>322</v>
@@ -9652,19 +9652,19 @@
         <v>348116</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>312847</v>
+        <v>312865</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>378586</v>
+        <v>380914</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2548573614948861</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2290374287396568</v>
+        <v>0.2290506077627378</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2771650156002112</v>
+        <v>0.2788689695456706</v>
       </c>
     </row>
     <row r="38">
@@ -9681,19 +9681,19 @@
         <v>41683</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>30488</v>
+        <v>31724</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>53912</v>
+        <v>54446</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1451623562352783</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1061762541090096</v>
+        <v>0.1104796224037317</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1877533098641919</v>
+        <v>0.1896105979372925</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>75</v>
@@ -9702,19 +9702,19 @@
         <v>76549</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>59654</v>
+        <v>61065</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>93258</v>
+        <v>94633</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.07095944965808566</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.05529776417390826</v>
+        <v>0.05660573084211558</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.08644809862318895</v>
+        <v>0.08772238860111119</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>115</v>
@@ -9723,19 +9723,19 @@
         <v>118232</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>96601</v>
+        <v>98244</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>139247</v>
+        <v>140064</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.08655843178351187</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.07072192233477456</v>
+        <v>0.07192533531699194</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1019434951526509</v>
+        <v>0.1025417165930807</v>
       </c>
     </row>
     <row r="39">
@@ -9827,19 +9827,19 @@
         <v>217108</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>189729</v>
+        <v>189389</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>247064</v>
+        <v>249263</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.06434067891420329</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.05622667754083523</v>
+        <v>0.05612587832757868</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.07321818087036691</v>
+        <v>0.07386971455029641</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>297</v>
@@ -9848,19 +9848,19 @@
         <v>323058</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>289137</v>
+        <v>288709</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>359798</v>
+        <v>357786</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.09175051553447647</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.08211662877266214</v>
+        <v>0.08199520088231968</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1021848758681448</v>
+        <v>0.1016135630070695</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>497</v>
@@ -9869,19 +9869,19 @@
         <v>540166</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>495553</v>
+        <v>491918</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>590128</v>
+        <v>583839</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.07833715442127122</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.07186719026328811</v>
+        <v>0.07133996233225263</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.08558278092962536</v>
+        <v>0.08467070987087791</v>
       </c>
     </row>
     <row r="41">
@@ -9898,19 +9898,19 @@
         <v>553076</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>514147</v>
+        <v>512400</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>600001</v>
+        <v>595782</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1639054985606204</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1523688184857105</v>
+        <v>0.1518511577661128</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1778118614489064</v>
+        <v>0.1765615395971281</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>737</v>
@@ -9919,19 +9919,19 @@
         <v>791249</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>740615</v>
+        <v>737191</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>842287</v>
+        <v>843653</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2247197146647112</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2103394422491179</v>
+        <v>0.2093669484023747</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2392147593651925</v>
+        <v>0.2396027355862457</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1272</v>
@@ -9940,19 +9940,19 @@
         <v>1344325</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1285600</v>
+        <v>1272202</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1415263</v>
+        <v>1411967</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1949594846888296</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1864429577876</v>
+        <v>0.1844999904781338</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2052471849469241</v>
+        <v>0.20476922473293</v>
       </c>
     </row>
     <row r="42">
@@ -9969,19 +9969,19 @@
         <v>1305492</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1249160</v>
+        <v>1242574</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1359427</v>
+        <v>1365331</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.386886020454964</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3701921209663495</v>
+        <v>0.3682401357812692</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4028698205104025</v>
+        <v>0.404619593510721</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1263</v>
@@ -9990,19 +9990,19 @@
         <v>1332248</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1270458</v>
+        <v>1274031</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1390623</v>
+        <v>1393044</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3783667684605485</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3608181541477699</v>
+        <v>0.361832840637611</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3949457746353068</v>
+        <v>0.3956333658727245</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>2503</v>
@@ -10011,19 +10011,19 @@
         <v>2637739</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2558859</v>
+        <v>2552856</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>2723826</v>
+        <v>2728565</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3825357755582037</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3710961349002954</v>
+        <v>0.3702256636923509</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.395020346818045</v>
+        <v>0.3957075989666911</v>
       </c>
     </row>
     <row r="43">
@@ -10040,19 +10040,19 @@
         <v>921452</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>870936</v>
+        <v>866051</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>973340</v>
+        <v>974133</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2730748975909276</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2581041469841262</v>
+        <v>0.2566565239408181</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2884520545885416</v>
+        <v>0.2886871415077999</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>766</v>
@@ -10061,19 +10061,19 @@
         <v>812766</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>757579</v>
+        <v>761396</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>861069</v>
+        <v>863615</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.230830535986288</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2151570573075098</v>
+        <v>0.2162411378895614</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2445489570969089</v>
+        <v>0.2452720757027327</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1648</v>
@@ -10082,19 +10082,19 @@
         <v>1734218</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>1662374</v>
+        <v>1654922</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>1811668</v>
+        <v>1803207</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2515033654179217</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2410842381463148</v>
+        <v>0.2400036321966779</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2627355269546059</v>
+        <v>0.2615084124679903</v>
       </c>
     </row>
     <row r="44">
@@ -10111,19 +10111,19 @@
         <v>377229</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>338610</v>
+        <v>343068</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>412544</v>
+        <v>414230</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1117929044792846</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1003479867793911</v>
+        <v>0.101669072626518</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1222584353545888</v>
+        <v>0.1227581062474652</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>254</v>
@@ -10132,19 +10132,19 @@
         <v>261728</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>231793</v>
+        <v>229881</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>295654</v>
+        <v>293016</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.07433246535397592</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.06583057334630389</v>
+        <v>0.06528760227754374</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.08396772824536997</v>
+        <v>0.08321847943488214</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>610</v>
@@ -10153,19 +10153,19 @@
         <v>638957</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>594615</v>
+        <v>588911</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>693065</v>
+        <v>686257</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.09266421991377383</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.08623351121576027</v>
+        <v>0.08540624394078922</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1005110921523546</v>
+        <v>0.09952386060480845</v>
       </c>
     </row>
     <row r="45">
